--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52964.2786682916</v>
+        <v>10539891.45499002</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52964.2786682916</v>
+        <v>10539891.45499002</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.790033578413</v>
+        <v>13586.57140653337</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.790033578413</v>
+        <v>13586.57140653337</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189060771.643086</v>
+        <v>48677647.16928673</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9858.035440736174</v>
+        <v>1084865.135880162</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19024.78739004721</v>
+        <v>2061609.187576027</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28187.73812723703</v>
+        <v>3037596.798059772</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37761.57249940246</v>
+        <v>4030066.600681171</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47252.73050793152</v>
+        <v>5006083.806938932</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56743.88851646057</v>
+        <v>5982101.013196693</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66235.04652498961</v>
+        <v>6958118.21945445</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75726.20453351866</v>
+        <v>7934135.425712206</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85235.79419245005</v>
+        <v>8910170.10401421</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94723.15098885787</v>
+        <v>9885430.869059846</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104214.3089973869</v>
+        <v>10861448.07531761</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113335.1197651161</v>
+        <v>11822525.56763598</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122531.0044722393</v>
+        <v>12798542.77389375</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131731.3355518221</v>
+        <v>13774115.74993019</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140944.7590256008</v>
+        <v>14747914.93627262</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>348</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
